--- a/data/output/plano/plano-funding-definitivo.xlsx
+++ b/data/output/plano/plano-funding-definitivo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="109">
   <si>
     <t>CtaFunding</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Custo Médio Cooperativa Central Mensal</t>
-  </si>
-  <si>
-    <t>IPCA Mensal</t>
   </si>
   <si>
     <t>DI Mensal</t>
@@ -909,7 +906,7 @@
         <v>78</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
         <v>100</v>
@@ -965,7 +962,7 @@
         <v>78</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
         <v>100</v>
@@ -1018,7 +1015,7 @@
         <v>78</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O6" t="s">
         <v>100</v>
@@ -1074,7 +1071,7 @@
         <v>78</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
         <v>100</v>
@@ -1130,7 +1127,7 @@
         <v>78</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
         <v>100</v>
@@ -1186,7 +1183,7 @@
         <v>78</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
         <v>100</v>
@@ -1242,7 +1239,7 @@
         <v>78</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
         <v>100</v>
@@ -1298,7 +1295,7 @@
         <v>78</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
         <v>100</v>
@@ -1354,7 +1351,7 @@
         <v>78</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
         <v>100</v>
@@ -1413,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>-999999</v>
@@ -1469,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P14">
         <v>-999999</v>
@@ -1525,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P15">
         <v>-999999</v>
@@ -1581,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>-999999</v>
@@ -1637,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P17">
         <v>-999999</v>
@@ -1693,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P18">
         <v>-999999</v>
@@ -1749,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P19">
         <v>-999999</v>
@@ -1805,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20">
         <v>-999999</v>
@@ -1861,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P21">
         <v>-999999</v>
@@ -1917,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P22">
         <v>-999999</v>
@@ -1973,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23">
         <v>-999999</v>
@@ -2029,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P24">
         <v>-999999</v>
@@ -2085,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P25">
         <v>-999999</v>
@@ -2141,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P26">
         <v>-999999</v>
@@ -2197,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -2253,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -2309,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -2365,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -2421,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -2477,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -2533,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -2589,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -2645,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -2701,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -2757,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -2813,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -2869,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -2925,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -2981,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="O41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P41">
         <v>31</v>
@@ -3037,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="O42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P42">
         <v>31</v>
@@ -3093,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P43">
         <v>31</v>
@@ -3149,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="O44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P44">
         <v>31</v>
@@ -3205,7 +3202,7 @@
         <v>6</v>
       </c>
       <c r="O45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P45">
         <v>31</v>
@@ -3261,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="O46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P46">
         <v>31</v>
@@ -3317,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P47">
         <v>31</v>
@@ -3373,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P48">
         <v>31</v>
@@ -3429,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="O49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P49">
         <v>31</v>
@@ -3485,7 +3482,7 @@
         <v>6</v>
       </c>
       <c r="O50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P50">
         <v>31</v>
@@ -3541,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="O51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P51">
         <v>31</v>
@@ -3597,7 +3594,7 @@
         <v>6</v>
       </c>
       <c r="O52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P52">
         <v>31</v>
@@ -3653,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="O53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P53">
         <v>31</v>
@@ -3709,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="O54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P54">
         <v>31</v>
@@ -3765,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P55">
         <v>61</v>
@@ -3821,7 +3818,7 @@
         <v>7</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P56">
         <v>61</v>
@@ -3877,7 +3874,7 @@
         <v>7</v>
       </c>
       <c r="O57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P57">
         <v>61</v>
@@ -3933,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="O58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P58">
         <v>61</v>
@@ -3989,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="O59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P59">
         <v>61</v>
@@ -4045,7 +4042,7 @@
         <v>7</v>
       </c>
       <c r="O60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P60">
         <v>61</v>
@@ -4101,7 +4098,7 @@
         <v>7</v>
       </c>
       <c r="O61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P61">
         <v>61</v>
@@ -4157,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="O62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P62">
         <v>61</v>
@@ -4213,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P63">
         <v>61</v>
@@ -4269,7 +4266,7 @@
         <v>7</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P64">
         <v>61</v>
@@ -4325,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P65">
         <v>61</v>
@@ -4381,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="O66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P66">
         <v>61</v>
@@ -4437,7 +4434,7 @@
         <v>7</v>
       </c>
       <c r="O67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P67">
         <v>61</v>
@@ -4493,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P68">
         <v>61</v>
@@ -4549,7 +4546,7 @@
         <v>8</v>
       </c>
       <c r="O69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P69">
         <v>91</v>
@@ -4605,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="O70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P70">
         <v>91</v>
@@ -4661,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="O71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P71">
         <v>91</v>
@@ -4717,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="O72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P72">
         <v>91</v>
@@ -4773,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="O73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P73">
         <v>91</v>
@@ -4829,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="O74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P74">
         <v>91</v>
@@ -4885,7 +4882,7 @@
         <v>8</v>
       </c>
       <c r="O75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P75">
         <v>91</v>
@@ -4941,7 +4938,7 @@
         <v>8</v>
       </c>
       <c r="O76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P76">
         <v>91</v>
@@ -4997,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="O77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P77">
         <v>91</v>
@@ -5053,7 +5050,7 @@
         <v>8</v>
       </c>
       <c r="O78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P78">
         <v>91</v>
@@ -5109,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="O79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P79">
         <v>91</v>
@@ -5165,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="O80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P80">
         <v>91</v>
@@ -5221,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="O81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P81">
         <v>91</v>
@@ -5277,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="O82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P82">
         <v>91</v>
@@ -5333,7 +5330,7 @@
         <v>9</v>
       </c>
       <c r="O83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P83">
         <v>181</v>
@@ -5389,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="O84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P84">
         <v>181</v>
@@ -5445,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="O85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P85">
         <v>181</v>
@@ -5501,7 +5498,7 @@
         <v>9</v>
       </c>
       <c r="O86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P86">
         <v>181</v>
@@ -5557,7 +5554,7 @@
         <v>9</v>
       </c>
       <c r="O87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P87">
         <v>181</v>
@@ -5613,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="O88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P88">
         <v>181</v>
@@ -5669,7 +5666,7 @@
         <v>9</v>
       </c>
       <c r="O89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P89">
         <v>181</v>
@@ -5725,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="O90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P90">
         <v>181</v>
@@ -5781,7 +5778,7 @@
         <v>9</v>
       </c>
       <c r="O91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P91">
         <v>181</v>
@@ -5837,7 +5834,7 @@
         <v>9</v>
       </c>
       <c r="O92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P92">
         <v>181</v>
@@ -5893,7 +5890,7 @@
         <v>9</v>
       </c>
       <c r="O93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P93">
         <v>181</v>
@@ -5949,7 +5946,7 @@
         <v>9</v>
       </c>
       <c r="O94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P94">
         <v>181</v>
@@ -6005,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="O95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P95">
         <v>181</v>
@@ -6061,7 +6058,7 @@
         <v>9</v>
       </c>
       <c r="O96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P96">
         <v>181</v>
@@ -6117,7 +6114,7 @@
         <v>10</v>
       </c>
       <c r="O97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P97">
         <v>361</v>
@@ -6173,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="O98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P98">
         <v>361</v>
@@ -6229,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="O99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P99">
         <v>361</v>
@@ -6285,7 +6282,7 @@
         <v>10</v>
       </c>
       <c r="O100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P100">
         <v>361</v>
@@ -6341,7 +6338,7 @@
         <v>10</v>
       </c>
       <c r="O101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P101">
         <v>361</v>
@@ -6397,7 +6394,7 @@
         <v>10</v>
       </c>
       <c r="O102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P102">
         <v>361</v>
@@ -6453,7 +6450,7 @@
         <v>10</v>
       </c>
       <c r="O103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P103">
         <v>361</v>
@@ -6509,7 +6506,7 @@
         <v>10</v>
       </c>
       <c r="O104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P104">
         <v>361</v>
@@ -6565,7 +6562,7 @@
         <v>10</v>
       </c>
       <c r="O105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P105">
         <v>361</v>
@@ -6621,7 +6618,7 @@
         <v>10</v>
       </c>
       <c r="O106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P106">
         <v>361</v>
@@ -6677,7 +6674,7 @@
         <v>10</v>
       </c>
       <c r="O107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P107">
         <v>361</v>
@@ -6733,7 +6730,7 @@
         <v>10</v>
       </c>
       <c r="O108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P108">
         <v>361</v>
@@ -6789,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="O109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P109">
         <v>361</v>
@@ -6845,7 +6842,7 @@
         <v>10</v>
       </c>
       <c r="O110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P110">
         <v>361</v>
@@ -6901,7 +6898,7 @@
         <v>11</v>
       </c>
       <c r="O111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P111">
         <v>720</v>
@@ -6957,7 +6954,7 @@
         <v>11</v>
       </c>
       <c r="O112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P112">
         <v>720</v>
@@ -7013,7 +7010,7 @@
         <v>11</v>
       </c>
       <c r="O113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P113">
         <v>720</v>
@@ -7069,7 +7066,7 @@
         <v>11</v>
       </c>
       <c r="O114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P114">
         <v>720</v>
@@ -7125,7 +7122,7 @@
         <v>11</v>
       </c>
       <c r="O115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P115">
         <v>720</v>
@@ -7181,7 +7178,7 @@
         <v>11</v>
       </c>
       <c r="O116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P116">
         <v>720</v>
@@ -7237,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="O117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P117">
         <v>720</v>
@@ -7293,7 +7290,7 @@
         <v>11</v>
       </c>
       <c r="O118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P118">
         <v>720</v>
@@ -7349,7 +7346,7 @@
         <v>11</v>
       </c>
       <c r="O119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P119">
         <v>720</v>
@@ -7405,7 +7402,7 @@
         <v>11</v>
       </c>
       <c r="O120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P120">
         <v>720</v>
@@ -7461,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="O121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P121">
         <v>720</v>
@@ -7517,7 +7514,7 @@
         <v>11</v>
       </c>
       <c r="O122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P122">
         <v>720</v>
@@ -7573,7 +7570,7 @@
         <v>11</v>
       </c>
       <c r="O123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P123">
         <v>720</v>
@@ -7629,7 +7626,7 @@
         <v>11</v>
       </c>
       <c r="O124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P124">
         <v>720</v>
@@ -7685,7 +7682,7 @@
         <v>19</v>
       </c>
       <c r="O125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P125">
         <v>-999999</v>
@@ -7741,7 +7738,7 @@
         <v>19</v>
       </c>
       <c r="O126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P126">
         <v>-999999</v>
@@ -7797,7 +7794,7 @@
         <v>19</v>
       </c>
       <c r="O127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P127">
         <v>-999999</v>
@@ -7853,7 +7850,7 @@
         <v>19</v>
       </c>
       <c r="O128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P128">
         <v>-999999</v>
@@ -7909,7 +7906,7 @@
         <v>19</v>
       </c>
       <c r="O129" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P129">
         <v>-999999</v>
@@ -7965,7 +7962,7 @@
         <v>19</v>
       </c>
       <c r="O130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P130">
         <v>-999999</v>
@@ -8021,7 +8018,7 @@
         <v>19</v>
       </c>
       <c r="O131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P131">
         <v>-999999</v>
@@ -8074,7 +8071,7 @@
         <v>96</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O132" t="s">
         <v>100</v>
@@ -8130,7 +8127,7 @@
         <v>96</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
         <v>100</v>
@@ -8186,7 +8183,7 @@
         <v>96</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O134" t="s">
         <v>100</v>
@@ -8242,7 +8239,7 @@
         <v>96</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O135" t="s">
         <v>100</v>
@@ -8298,7 +8295,7 @@
         <v>96</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O136" t="s">
         <v>100</v>
@@ -8354,7 +8351,7 @@
         <v>96</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O137" t="s">
         <v>100</v>
@@ -8410,7 +8407,7 @@
         <v>96</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O138" t="s">
         <v>100</v>
@@ -8463,7 +8460,7 @@
         <v>96</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O139" t="s">
         <v>100</v>
@@ -8650,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="O144" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P144">
         <v>-999999</v>
@@ -8700,7 +8697,7 @@
         <v>78</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O145" t="s">
         <v>100</v>
@@ -8753,7 +8750,7 @@
         <v>78</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O146" t="s">
         <v>100</v>
@@ -8809,7 +8806,7 @@
         <v>78</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O147" t="s">
         <v>100</v>
@@ -8865,7 +8862,7 @@
         <v>78</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O148" t="s">
         <v>100</v>
@@ -8921,7 +8918,7 @@
         <v>78</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O149" t="s">
         <v>100</v>
@@ -8977,7 +8974,7 @@
         <v>78</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O150" t="s">
         <v>100</v>
@@ -9033,7 +9030,7 @@
         <v>78</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O151" t="s">
         <v>100</v>
@@ -9089,7 +9086,7 @@
         <v>78</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
         <v>100</v>
@@ -9145,7 +9142,7 @@
         <v>78</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O153" t="s">
         <v>100</v>
@@ -9201,7 +9198,7 @@
         <v>78</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O154" t="s">
         <v>100</v>
@@ -9257,7 +9254,7 @@
         <v>78</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O155" t="s">
         <v>100</v>
@@ -9313,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O156" t="s">
         <v>100</v>
@@ -9369,7 +9366,7 @@
         <v>78</v>
       </c>
       <c r="N157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O157" t="s">
         <v>100</v>
@@ -9425,7 +9422,7 @@
         <v>78</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O158" t="s">
         <v>100</v>
@@ -9481,7 +9478,7 @@
         <v>78</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O159" t="s">
         <v>100</v>
@@ -9537,7 +9534,7 @@
         <v>78</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O160" t="s">
         <v>100</v>
@@ -9593,7 +9590,7 @@
         <v>78</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O161" t="s">
         <v>100</v>
@@ -9649,7 +9646,7 @@
         <v>78</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O162" t="s">
         <v>100</v>
@@ -9705,7 +9702,7 @@
         <v>78</v>
       </c>
       <c r="N163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O163" t="s">
         <v>100</v>
@@ -9761,7 +9758,7 @@
         <v>78</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O164" t="s">
         <v>100</v>
@@ -9817,7 +9814,7 @@
         <v>78</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O165" t="s">
         <v>100</v>
@@ -9873,7 +9870,7 @@
         <v>78</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O166" t="s">
         <v>100</v>
@@ -9929,7 +9926,7 @@
         <v>78</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O167" t="s">
         <v>100</v>
@@ -9988,7 +9985,7 @@
         <v>4</v>
       </c>
       <c r="O168" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P168">
         <v>-999999</v>
@@ -10044,7 +10041,7 @@
         <v>4</v>
       </c>
       <c r="O169" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P169">
         <v>-999999</v>
@@ -10100,7 +10097,7 @@
         <v>4</v>
       </c>
       <c r="O170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P170">
         <v>-999999</v>
@@ -10156,7 +10153,7 @@
         <v>4</v>
       </c>
       <c r="O171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P171">
         <v>-999999</v>
@@ -10212,7 +10209,7 @@
         <v>4</v>
       </c>
       <c r="O172" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P172">
         <v>-999999</v>
@@ -10268,7 +10265,7 @@
         <v>4</v>
       </c>
       <c r="O173" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P173">
         <v>-999999</v>
@@ -10324,7 +10321,7 @@
         <v>4</v>
       </c>
       <c r="O174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P174">
         <v>-999999</v>
@@ -10380,7 +10377,7 @@
         <v>4</v>
       </c>
       <c r="O175" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P175">
         <v>-999999</v>
@@ -10436,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="O176" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P176">
         <v>-999999</v>
@@ -10492,7 +10489,7 @@
         <v>4</v>
       </c>
       <c r="O177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P177">
         <v>-999999</v>
@@ -10548,7 +10545,7 @@
         <v>4</v>
       </c>
       <c r="O178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P178">
         <v>-999999</v>
@@ -10604,7 +10601,7 @@
         <v>4</v>
       </c>
       <c r="O179" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P179">
         <v>-999999</v>
@@ -10660,7 +10657,7 @@
         <v>4</v>
       </c>
       <c r="O180" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P180">
         <v>-999999</v>
@@ -10716,7 +10713,7 @@
         <v>4</v>
       </c>
       <c r="O181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P181">
         <v>-999999</v>
@@ -10772,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="O182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P182">
         <v>-999999</v>
@@ -10828,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="O183" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P183">
         <v>-999999</v>
@@ -10884,7 +10881,7 @@
         <v>4</v>
       </c>
       <c r="O184" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P184">
         <v>-999999</v>
@@ -10940,7 +10937,7 @@
         <v>4</v>
       </c>
       <c r="O185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P185">
         <v>-999999</v>
@@ -10996,7 +10993,7 @@
         <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P186">
         <v>-999999</v>
@@ -11052,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="O187" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P187">
         <v>-999999</v>
@@ -11108,7 +11105,7 @@
         <v>4</v>
       </c>
       <c r="O188" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P188">
         <v>-999999</v>
@@ -11164,7 +11161,7 @@
         <v>4</v>
       </c>
       <c r="O189" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P189">
         <v>-999999</v>
@@ -11220,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="O190" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P190">
         <v>-999999</v>
@@ -11276,7 +11273,7 @@
         <v>4</v>
       </c>
       <c r="O191" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P191">
         <v>-999999</v>
@@ -11332,7 +11329,7 @@
         <v>4</v>
       </c>
       <c r="O192" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P192">
         <v>-999999</v>
@@ -11388,7 +11385,7 @@
         <v>4</v>
       </c>
       <c r="O193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P193">
         <v>-999999</v>
@@ -11444,7 +11441,7 @@
         <v>4</v>
       </c>
       <c r="O194" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P194">
         <v>-999999</v>
@@ -11500,7 +11497,7 @@
         <v>4</v>
       </c>
       <c r="O195" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P195">
         <v>-999999</v>
@@ -11556,7 +11553,7 @@
         <v>4</v>
       </c>
       <c r="O196" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P196">
         <v>-999999</v>
@@ -11612,7 +11609,7 @@
         <v>4</v>
       </c>
       <c r="O197" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P197">
         <v>-999999</v>
@@ -11668,7 +11665,7 @@
         <v>4</v>
       </c>
       <c r="O198" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P198">
         <v>-999999</v>
@@ -11724,7 +11721,7 @@
         <v>4</v>
       </c>
       <c r="O199" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P199">
         <v>-999999</v>
@@ -11780,7 +11777,7 @@
         <v>4</v>
       </c>
       <c r="O200" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P200">
         <v>-999999</v>
@@ -11836,7 +11833,7 @@
         <v>4</v>
       </c>
       <c r="O201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P201">
         <v>-999999</v>
@@ -11892,7 +11889,7 @@
         <v>4</v>
       </c>
       <c r="O202" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P202">
         <v>-999999</v>
@@ -11948,7 +11945,7 @@
         <v>4</v>
       </c>
       <c r="O203" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P203">
         <v>-999999</v>
@@ -12004,7 +12001,7 @@
         <v>4</v>
       </c>
       <c r="O204" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P204">
         <v>-999999</v>
@@ -12060,7 +12057,7 @@
         <v>4</v>
       </c>
       <c r="O205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P205">
         <v>-999999</v>
@@ -12116,7 +12113,7 @@
         <v>4</v>
       </c>
       <c r="O206" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P206">
         <v>-999999</v>
@@ -12172,7 +12169,7 @@
         <v>4</v>
       </c>
       <c r="O207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P207">
         <v>-999999</v>
@@ -12228,7 +12225,7 @@
         <v>4</v>
       </c>
       <c r="O208" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P208">
         <v>-999999</v>
@@ -12284,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="O209" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P209">
         <v>-999999</v>
@@ -12340,7 +12337,7 @@
         <v>5</v>
       </c>
       <c r="O210" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P210">
         <v>2</v>
@@ -12396,7 +12393,7 @@
         <v>5</v>
       </c>
       <c r="O211" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P211">
         <v>2</v>
@@ -12452,7 +12449,7 @@
         <v>5</v>
       </c>
       <c r="O212" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P212">
         <v>2</v>
@@ -12508,7 +12505,7 @@
         <v>5</v>
       </c>
       <c r="O213" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P213">
         <v>2</v>
@@ -12564,7 +12561,7 @@
         <v>5</v>
       </c>
       <c r="O214" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P214">
         <v>2</v>
@@ -12620,7 +12617,7 @@
         <v>5</v>
       </c>
       <c r="O215" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P215">
         <v>2</v>
@@ -12676,7 +12673,7 @@
         <v>5</v>
       </c>
       <c r="O216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P216">
         <v>2</v>
@@ -12732,7 +12729,7 @@
         <v>5</v>
       </c>
       <c r="O217" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P217">
         <v>2</v>
@@ -12788,7 +12785,7 @@
         <v>5</v>
       </c>
       <c r="O218" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P218">
         <v>2</v>
@@ -12844,7 +12841,7 @@
         <v>5</v>
       </c>
       <c r="O219" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P219">
         <v>2</v>
@@ -12900,7 +12897,7 @@
         <v>5</v>
       </c>
       <c r="O220" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P220">
         <v>2</v>
@@ -12956,7 +12953,7 @@
         <v>5</v>
       </c>
       <c r="O221" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P221">
         <v>2</v>
@@ -13012,7 +13009,7 @@
         <v>5</v>
       </c>
       <c r="O222" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P222">
         <v>2</v>
@@ -13068,7 +13065,7 @@
         <v>5</v>
       </c>
       <c r="O223" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P223">
         <v>2</v>
@@ -13124,7 +13121,7 @@
         <v>5</v>
       </c>
       <c r="O224" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P224">
         <v>2</v>
@@ -13180,7 +13177,7 @@
         <v>5</v>
       </c>
       <c r="O225" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P225">
         <v>2</v>
@@ -13236,7 +13233,7 @@
         <v>5</v>
       </c>
       <c r="O226" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P226">
         <v>2</v>
@@ -13292,7 +13289,7 @@
         <v>5</v>
       </c>
       <c r="O227" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P227">
         <v>2</v>
@@ -13348,7 +13345,7 @@
         <v>5</v>
       </c>
       <c r="O228" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P228">
         <v>2</v>
@@ -13404,7 +13401,7 @@
         <v>5</v>
       </c>
       <c r="O229" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P229">
         <v>2</v>
@@ -13460,7 +13457,7 @@
         <v>5</v>
       </c>
       <c r="O230" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P230">
         <v>2</v>
@@ -13516,7 +13513,7 @@
         <v>5</v>
       </c>
       <c r="O231" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P231">
         <v>2</v>
@@ -13572,7 +13569,7 @@
         <v>5</v>
       </c>
       <c r="O232" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P232">
         <v>2</v>
@@ -13628,7 +13625,7 @@
         <v>5</v>
       </c>
       <c r="O233" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P233">
         <v>2</v>
@@ -13684,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="O234" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P234">
         <v>2</v>
@@ -13740,7 +13737,7 @@
         <v>5</v>
       </c>
       <c r="O235" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P235">
         <v>2</v>
@@ -13796,7 +13793,7 @@
         <v>5</v>
       </c>
       <c r="O236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P236">
         <v>2</v>
@@ -13852,7 +13849,7 @@
         <v>5</v>
       </c>
       <c r="O237" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P237">
         <v>2</v>
@@ -13908,7 +13905,7 @@
         <v>5</v>
       </c>
       <c r="O238" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P238">
         <v>2</v>
@@ -13964,7 +13961,7 @@
         <v>5</v>
       </c>
       <c r="O239" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P239">
         <v>2</v>
@@ -14020,7 +14017,7 @@
         <v>5</v>
       </c>
       <c r="O240" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P240">
         <v>2</v>
@@ -14076,7 +14073,7 @@
         <v>5</v>
       </c>
       <c r="O241" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -14132,7 +14129,7 @@
         <v>5</v>
       </c>
       <c r="O242" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P242">
         <v>2</v>
@@ -14188,7 +14185,7 @@
         <v>5</v>
       </c>
       <c r="O243" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P243">
         <v>2</v>
@@ -14244,7 +14241,7 @@
         <v>5</v>
       </c>
       <c r="O244" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P244">
         <v>2</v>
@@ -14300,7 +14297,7 @@
         <v>5</v>
       </c>
       <c r="O245" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P245">
         <v>2</v>
@@ -14356,7 +14353,7 @@
         <v>5</v>
       </c>
       <c r="O246" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P246">
         <v>2</v>
@@ -14412,7 +14409,7 @@
         <v>5</v>
       </c>
       <c r="O247" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P247">
         <v>2</v>
@@ -14468,7 +14465,7 @@
         <v>5</v>
       </c>
       <c r="O248" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P248">
         <v>2</v>
@@ -14524,7 +14521,7 @@
         <v>5</v>
       </c>
       <c r="O249" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P249">
         <v>2</v>
@@ -14580,7 +14577,7 @@
         <v>5</v>
       </c>
       <c r="O250" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P250">
         <v>2</v>
@@ -14636,7 +14633,7 @@
         <v>5</v>
       </c>
       <c r="O251" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P251">
         <v>2</v>
@@ -14692,7 +14689,7 @@
         <v>6</v>
       </c>
       <c r="O252" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P252">
         <v>31</v>
@@ -14748,7 +14745,7 @@
         <v>6</v>
       </c>
       <c r="O253" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P253">
         <v>31</v>
@@ -14804,7 +14801,7 @@
         <v>6</v>
       </c>
       <c r="O254" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P254">
         <v>31</v>
@@ -14860,7 +14857,7 @@
         <v>6</v>
       </c>
       <c r="O255" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P255">
         <v>31</v>
@@ -14916,7 +14913,7 @@
         <v>6</v>
       </c>
       <c r="O256" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P256">
         <v>31</v>
@@ -14972,7 +14969,7 @@
         <v>6</v>
       </c>
       <c r="O257" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P257">
         <v>31</v>
@@ -15028,7 +15025,7 @@
         <v>6</v>
       </c>
       <c r="O258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P258">
         <v>31</v>
@@ -15084,7 +15081,7 @@
         <v>6</v>
       </c>
       <c r="O259" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P259">
         <v>31</v>
@@ -15140,7 +15137,7 @@
         <v>6</v>
       </c>
       <c r="O260" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P260">
         <v>31</v>
@@ -15196,7 +15193,7 @@
         <v>6</v>
       </c>
       <c r="O261" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P261">
         <v>31</v>
@@ -15252,7 +15249,7 @@
         <v>6</v>
       </c>
       <c r="O262" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P262">
         <v>31</v>
@@ -15308,7 +15305,7 @@
         <v>6</v>
       </c>
       <c r="O263" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P263">
         <v>31</v>
@@ -15364,7 +15361,7 @@
         <v>6</v>
       </c>
       <c r="O264" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P264">
         <v>31</v>
@@ -15420,7 +15417,7 @@
         <v>6</v>
       </c>
       <c r="O265" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P265">
         <v>31</v>
@@ -15476,7 +15473,7 @@
         <v>6</v>
       </c>
       <c r="O266" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P266">
         <v>31</v>
@@ -15532,7 +15529,7 @@
         <v>6</v>
       </c>
       <c r="O267" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P267">
         <v>31</v>
@@ -15588,7 +15585,7 @@
         <v>6</v>
       </c>
       <c r="O268" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P268">
         <v>31</v>
@@ -15644,7 +15641,7 @@
         <v>6</v>
       </c>
       <c r="O269" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P269">
         <v>31</v>
@@ -15700,7 +15697,7 @@
         <v>6</v>
       </c>
       <c r="O270" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P270">
         <v>31</v>
@@ -15756,7 +15753,7 @@
         <v>6</v>
       </c>
       <c r="O271" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P271">
         <v>31</v>
@@ -15812,7 +15809,7 @@
         <v>6</v>
       </c>
       <c r="O272" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P272">
         <v>31</v>
@@ -15868,7 +15865,7 @@
         <v>6</v>
       </c>
       <c r="O273" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P273">
         <v>31</v>
@@ -15924,7 +15921,7 @@
         <v>6</v>
       </c>
       <c r="O274" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P274">
         <v>31</v>
@@ -15980,7 +15977,7 @@
         <v>6</v>
       </c>
       <c r="O275" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P275">
         <v>31</v>
@@ -16036,7 +16033,7 @@
         <v>6</v>
       </c>
       <c r="O276" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P276">
         <v>31</v>
@@ -16092,7 +16089,7 @@
         <v>6</v>
       </c>
       <c r="O277" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P277">
         <v>31</v>
@@ -16148,7 +16145,7 @@
         <v>6</v>
       </c>
       <c r="O278" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P278">
         <v>31</v>
@@ -16204,7 +16201,7 @@
         <v>6</v>
       </c>
       <c r="O279" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P279">
         <v>31</v>
@@ -16260,7 +16257,7 @@
         <v>6</v>
       </c>
       <c r="O280" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P280">
         <v>31</v>
@@ -16316,7 +16313,7 @@
         <v>6</v>
       </c>
       <c r="O281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P281">
         <v>31</v>
@@ -16372,7 +16369,7 @@
         <v>6</v>
       </c>
       <c r="O282" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P282">
         <v>31</v>
@@ -16428,7 +16425,7 @@
         <v>6</v>
       </c>
       <c r="O283" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P283">
         <v>31</v>
@@ -16484,7 +16481,7 @@
         <v>6</v>
       </c>
       <c r="O284" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P284">
         <v>31</v>
@@ -16540,7 +16537,7 @@
         <v>6</v>
       </c>
       <c r="O285" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P285">
         <v>31</v>
@@ -16596,7 +16593,7 @@
         <v>6</v>
       </c>
       <c r="O286" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P286">
         <v>31</v>
@@ -16652,7 +16649,7 @@
         <v>6</v>
       </c>
       <c r="O287" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P287">
         <v>31</v>
@@ -16708,7 +16705,7 @@
         <v>6</v>
       </c>
       <c r="O288" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P288">
         <v>31</v>
@@ -16764,7 +16761,7 @@
         <v>6</v>
       </c>
       <c r="O289" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P289">
         <v>31</v>
@@ -16820,7 +16817,7 @@
         <v>6</v>
       </c>
       <c r="O290" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P290">
         <v>31</v>
@@ -16876,7 +16873,7 @@
         <v>6</v>
       </c>
       <c r="O291" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P291">
         <v>31</v>
@@ -16932,7 +16929,7 @@
         <v>6</v>
       </c>
       <c r="O292" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P292">
         <v>31</v>
@@ -16988,7 +16985,7 @@
         <v>6</v>
       </c>
       <c r="O293" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P293">
         <v>31</v>
@@ -17044,7 +17041,7 @@
         <v>7</v>
       </c>
       <c r="O294" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P294">
         <v>61</v>
@@ -17100,7 +17097,7 @@
         <v>7</v>
       </c>
       <c r="O295" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P295">
         <v>61</v>
@@ -17156,7 +17153,7 @@
         <v>7</v>
       </c>
       <c r="O296" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P296">
         <v>61</v>
@@ -17212,7 +17209,7 @@
         <v>7</v>
       </c>
       <c r="O297" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P297">
         <v>61</v>
@@ -17268,7 +17265,7 @@
         <v>7</v>
       </c>
       <c r="O298" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P298">
         <v>61</v>
@@ -17324,7 +17321,7 @@
         <v>7</v>
       </c>
       <c r="O299" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P299">
         <v>61</v>
@@ -17380,7 +17377,7 @@
         <v>7</v>
       </c>
       <c r="O300" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P300">
         <v>61</v>
@@ -17436,7 +17433,7 @@
         <v>7</v>
       </c>
       <c r="O301" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P301">
         <v>61</v>
@@ -17492,7 +17489,7 @@
         <v>7</v>
       </c>
       <c r="O302" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P302">
         <v>61</v>
@@ -17548,7 +17545,7 @@
         <v>7</v>
       </c>
       <c r="O303" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P303">
         <v>61</v>
@@ -17604,7 +17601,7 @@
         <v>7</v>
       </c>
       <c r="O304" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P304">
         <v>61</v>
@@ -17660,7 +17657,7 @@
         <v>7</v>
       </c>
       <c r="O305" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P305">
         <v>61</v>
@@ -17716,7 +17713,7 @@
         <v>7</v>
       </c>
       <c r="O306" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P306">
         <v>61</v>
@@ -17772,7 +17769,7 @@
         <v>7</v>
       </c>
       <c r="O307" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P307">
         <v>61</v>
@@ -17828,7 +17825,7 @@
         <v>7</v>
       </c>
       <c r="O308" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P308">
         <v>61</v>
@@ -17884,7 +17881,7 @@
         <v>7</v>
       </c>
       <c r="O309" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P309">
         <v>61</v>
@@ -17940,7 +17937,7 @@
         <v>7</v>
       </c>
       <c r="O310" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P310">
         <v>61</v>
@@ -17996,7 +17993,7 @@
         <v>7</v>
       </c>
       <c r="O311" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P311">
         <v>61</v>
@@ -18052,7 +18049,7 @@
         <v>7</v>
       </c>
       <c r="O312" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P312">
         <v>61</v>
@@ -18108,7 +18105,7 @@
         <v>7</v>
       </c>
       <c r="O313" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P313">
         <v>61</v>
@@ -18164,7 +18161,7 @@
         <v>7</v>
       </c>
       <c r="O314" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P314">
         <v>61</v>
@@ -18220,7 +18217,7 @@
         <v>7</v>
       </c>
       <c r="O315" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P315">
         <v>61</v>
@@ -18276,7 +18273,7 @@
         <v>7</v>
       </c>
       <c r="O316" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P316">
         <v>61</v>
@@ -18332,7 +18329,7 @@
         <v>7</v>
       </c>
       <c r="O317" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P317">
         <v>61</v>
@@ -18388,7 +18385,7 @@
         <v>7</v>
       </c>
       <c r="O318" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P318">
         <v>61</v>
@@ -18444,7 +18441,7 @@
         <v>7</v>
       </c>
       <c r="O319" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P319">
         <v>61</v>
@@ -18500,7 +18497,7 @@
         <v>7</v>
       </c>
       <c r="O320" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P320">
         <v>61</v>
@@ -18556,7 +18553,7 @@
         <v>7</v>
       </c>
       <c r="O321" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P321">
         <v>61</v>
@@ -18612,7 +18609,7 @@
         <v>7</v>
       </c>
       <c r="O322" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P322">
         <v>61</v>
@@ -18668,7 +18665,7 @@
         <v>7</v>
       </c>
       <c r="O323" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P323">
         <v>61</v>
@@ -18724,7 +18721,7 @@
         <v>7</v>
       </c>
       <c r="O324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P324">
         <v>61</v>
@@ -18780,7 +18777,7 @@
         <v>7</v>
       </c>
       <c r="O325" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P325">
         <v>61</v>
@@ -18836,7 +18833,7 @@
         <v>7</v>
       </c>
       <c r="O326" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P326">
         <v>61</v>
@@ -18892,7 +18889,7 @@
         <v>7</v>
       </c>
       <c r="O327" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P327">
         <v>61</v>
@@ -18948,7 +18945,7 @@
         <v>7</v>
       </c>
       <c r="O328" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P328">
         <v>61</v>
@@ -19004,7 +19001,7 @@
         <v>7</v>
       </c>
       <c r="O329" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P329">
         <v>61</v>
@@ -19060,7 +19057,7 @@
         <v>7</v>
       </c>
       <c r="O330" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P330">
         <v>61</v>
@@ -19116,7 +19113,7 @@
         <v>7</v>
       </c>
       <c r="O331" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P331">
         <v>61</v>
@@ -19172,7 +19169,7 @@
         <v>7</v>
       </c>
       <c r="O332" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P332">
         <v>61</v>
@@ -19228,7 +19225,7 @@
         <v>7</v>
       </c>
       <c r="O333" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P333">
         <v>61</v>
@@ -19284,7 +19281,7 @@
         <v>7</v>
       </c>
       <c r="O334" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P334">
         <v>61</v>
@@ -19340,7 +19337,7 @@
         <v>7</v>
       </c>
       <c r="O335" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P335">
         <v>61</v>
@@ -19396,7 +19393,7 @@
         <v>8</v>
       </c>
       <c r="O336" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P336">
         <v>91</v>
@@ -19452,7 +19449,7 @@
         <v>8</v>
       </c>
       <c r="O337" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P337">
         <v>91</v>
@@ -19508,7 +19505,7 @@
         <v>8</v>
       </c>
       <c r="O338" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P338">
         <v>91</v>
@@ -19564,7 +19561,7 @@
         <v>8</v>
       </c>
       <c r="O339" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P339">
         <v>91</v>
@@ -19620,7 +19617,7 @@
         <v>8</v>
       </c>
       <c r="O340" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P340">
         <v>91</v>
@@ -19676,7 +19673,7 @@
         <v>8</v>
       </c>
       <c r="O341" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P341">
         <v>91</v>
@@ -19732,7 +19729,7 @@
         <v>8</v>
       </c>
       <c r="O342" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P342">
         <v>91</v>
@@ -19788,7 +19785,7 @@
         <v>8</v>
       </c>
       <c r="O343" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P343">
         <v>91</v>
@@ -19844,7 +19841,7 @@
         <v>8</v>
       </c>
       <c r="O344" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P344">
         <v>91</v>
@@ -19900,7 +19897,7 @@
         <v>8</v>
       </c>
       <c r="O345" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P345">
         <v>91</v>
@@ -19956,7 +19953,7 @@
         <v>8</v>
       </c>
       <c r="O346" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P346">
         <v>91</v>
@@ -20012,7 +20009,7 @@
         <v>8</v>
       </c>
       <c r="O347" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P347">
         <v>91</v>
@@ -20068,7 +20065,7 @@
         <v>8</v>
       </c>
       <c r="O348" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P348">
         <v>91</v>
@@ -20124,7 +20121,7 @@
         <v>8</v>
       </c>
       <c r="O349" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P349">
         <v>91</v>
@@ -20180,7 +20177,7 @@
         <v>8</v>
       </c>
       <c r="O350" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P350">
         <v>91</v>
@@ -20236,7 +20233,7 @@
         <v>8</v>
       </c>
       <c r="O351" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P351">
         <v>91</v>
@@ -20292,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="O352" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P352">
         <v>91</v>
@@ -20348,7 +20345,7 @@
         <v>8</v>
       </c>
       <c r="O353" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P353">
         <v>91</v>
@@ -20404,7 +20401,7 @@
         <v>8</v>
       </c>
       <c r="O354" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P354">
         <v>91</v>
@@ -20460,7 +20457,7 @@
         <v>8</v>
       </c>
       <c r="O355" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P355">
         <v>91</v>
@@ -20516,7 +20513,7 @@
         <v>8</v>
       </c>
       <c r="O356" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P356">
         <v>91</v>
@@ -20572,7 +20569,7 @@
         <v>8</v>
       </c>
       <c r="O357" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P357">
         <v>91</v>
@@ -20628,7 +20625,7 @@
         <v>8</v>
       </c>
       <c r="O358" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P358">
         <v>91</v>
@@ -20684,7 +20681,7 @@
         <v>8</v>
       </c>
       <c r="O359" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P359">
         <v>91</v>
@@ -20740,7 +20737,7 @@
         <v>8</v>
       </c>
       <c r="O360" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P360">
         <v>91</v>
@@ -20796,7 +20793,7 @@
         <v>8</v>
       </c>
       <c r="O361" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P361">
         <v>91</v>
@@ -20852,7 +20849,7 @@
         <v>8</v>
       </c>
       <c r="O362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P362">
         <v>91</v>
@@ -20908,7 +20905,7 @@
         <v>8</v>
       </c>
       <c r="O363" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P363">
         <v>91</v>
@@ -20964,7 +20961,7 @@
         <v>8</v>
       </c>
       <c r="O364" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P364">
         <v>91</v>
@@ -21020,7 +21017,7 @@
         <v>8</v>
       </c>
       <c r="O365" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P365">
         <v>91</v>
@@ -21076,7 +21073,7 @@
         <v>8</v>
       </c>
       <c r="O366" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P366">
         <v>91</v>
@@ -21132,7 +21129,7 @@
         <v>8</v>
       </c>
       <c r="O367" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P367">
         <v>91</v>
@@ -21188,7 +21185,7 @@
         <v>8</v>
       </c>
       <c r="O368" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P368">
         <v>91</v>
@@ -21244,7 +21241,7 @@
         <v>8</v>
       </c>
       <c r="O369" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P369">
         <v>91</v>
@@ -21300,7 +21297,7 @@
         <v>8</v>
       </c>
       <c r="O370" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P370">
         <v>91</v>
@@ -21356,7 +21353,7 @@
         <v>8</v>
       </c>
       <c r="O371" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P371">
         <v>91</v>
@@ -21412,7 +21409,7 @@
         <v>8</v>
       </c>
       <c r="O372" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P372">
         <v>91</v>
@@ -21468,7 +21465,7 @@
         <v>8</v>
       </c>
       <c r="O373" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P373">
         <v>91</v>
@@ -21524,7 +21521,7 @@
         <v>8</v>
       </c>
       <c r="O374" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P374">
         <v>91</v>
@@ -21580,7 +21577,7 @@
         <v>8</v>
       </c>
       <c r="O375" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P375">
         <v>91</v>
@@ -21636,7 +21633,7 @@
         <v>8</v>
       </c>
       <c r="O376" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P376">
         <v>91</v>
@@ -21692,7 +21689,7 @@
         <v>8</v>
       </c>
       <c r="O377" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P377">
         <v>91</v>
@@ -21748,7 +21745,7 @@
         <v>9</v>
       </c>
       <c r="O378" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P378">
         <v>181</v>
@@ -21804,7 +21801,7 @@
         <v>9</v>
       </c>
       <c r="O379" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P379">
         <v>181</v>
@@ -21860,7 +21857,7 @@
         <v>9</v>
       </c>
       <c r="O380" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P380">
         <v>181</v>
@@ -21916,7 +21913,7 @@
         <v>9</v>
       </c>
       <c r="O381" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P381">
         <v>181</v>
@@ -21972,7 +21969,7 @@
         <v>9</v>
       </c>
       <c r="O382" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P382">
         <v>181</v>
@@ -22028,7 +22025,7 @@
         <v>9</v>
       </c>
       <c r="O383" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P383">
         <v>181</v>
@@ -22084,7 +22081,7 @@
         <v>9</v>
       </c>
       <c r="O384" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P384">
         <v>181</v>
@@ -22140,7 +22137,7 @@
         <v>9</v>
       </c>
       <c r="O385" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P385">
         <v>181</v>
@@ -22196,7 +22193,7 @@
         <v>9</v>
       </c>
       <c r="O386" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P386">
         <v>181</v>
@@ -22252,7 +22249,7 @@
         <v>9</v>
       </c>
       <c r="O387" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P387">
         <v>181</v>
@@ -22308,7 +22305,7 @@
         <v>9</v>
       </c>
       <c r="O388" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P388">
         <v>181</v>
@@ -22364,7 +22361,7 @@
         <v>9</v>
       </c>
       <c r="O389" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P389">
         <v>181</v>
@@ -22420,7 +22417,7 @@
         <v>9</v>
       </c>
       <c r="O390" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P390">
         <v>181</v>
@@ -22476,7 +22473,7 @@
         <v>9</v>
       </c>
       <c r="O391" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P391">
         <v>181</v>
@@ -22532,7 +22529,7 @@
         <v>9</v>
       </c>
       <c r="O392" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P392">
         <v>181</v>
@@ -22588,7 +22585,7 @@
         <v>9</v>
       </c>
       <c r="O393" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P393">
         <v>181</v>
@@ -22644,7 +22641,7 @@
         <v>9</v>
       </c>
       <c r="O394" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P394">
         <v>181</v>
@@ -22700,7 +22697,7 @@
         <v>9</v>
       </c>
       <c r="O395" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P395">
         <v>181</v>
@@ -22756,7 +22753,7 @@
         <v>9</v>
       </c>
       <c r="O396" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P396">
         <v>181</v>
@@ -22812,7 +22809,7 @@
         <v>9</v>
       </c>
       <c r="O397" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P397">
         <v>181</v>
@@ -22868,7 +22865,7 @@
         <v>9</v>
       </c>
       <c r="O398" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P398">
         <v>181</v>
@@ -22924,7 +22921,7 @@
         <v>9</v>
       </c>
       <c r="O399" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P399">
         <v>181</v>
@@ -22980,7 +22977,7 @@
         <v>9</v>
       </c>
       <c r="O400" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P400">
         <v>181</v>
@@ -23036,7 +23033,7 @@
         <v>9</v>
       </c>
       <c r="O401" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P401">
         <v>181</v>
@@ -23092,7 +23089,7 @@
         <v>9</v>
       </c>
       <c r="O402" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P402">
         <v>181</v>
@@ -23148,7 +23145,7 @@
         <v>9</v>
       </c>
       <c r="O403" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P403">
         <v>181</v>
@@ -23204,7 +23201,7 @@
         <v>9</v>
       </c>
       <c r="O404" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P404">
         <v>181</v>
@@ -23260,7 +23257,7 @@
         <v>9</v>
       </c>
       <c r="O405" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P405">
         <v>181</v>
@@ -23316,7 +23313,7 @@
         <v>9</v>
       </c>
       <c r="O406" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P406">
         <v>181</v>
@@ -23372,7 +23369,7 @@
         <v>9</v>
       </c>
       <c r="O407" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P407">
         <v>181</v>
@@ -23428,7 +23425,7 @@
         <v>9</v>
       </c>
       <c r="O408" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P408">
         <v>181</v>
@@ -23484,7 +23481,7 @@
         <v>9</v>
       </c>
       <c r="O409" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P409">
         <v>181</v>
@@ -23540,7 +23537,7 @@
         <v>9</v>
       </c>
       <c r="O410" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P410">
         <v>181</v>
@@ -23596,7 +23593,7 @@
         <v>9</v>
       </c>
       <c r="O411" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P411">
         <v>181</v>
@@ -23652,7 +23649,7 @@
         <v>9</v>
       </c>
       <c r="O412" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P412">
         <v>181</v>
@@ -23708,7 +23705,7 @@
         <v>9</v>
       </c>
       <c r="O413" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P413">
         <v>181</v>
@@ -23764,7 +23761,7 @@
         <v>9</v>
       </c>
       <c r="O414" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P414">
         <v>181</v>
@@ -23820,7 +23817,7 @@
         <v>9</v>
       </c>
       <c r="O415" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P415">
         <v>181</v>
@@ -23876,7 +23873,7 @@
         <v>9</v>
       </c>
       <c r="O416" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P416">
         <v>181</v>
@@ -23932,7 +23929,7 @@
         <v>9</v>
       </c>
       <c r="O417" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P417">
         <v>181</v>
@@ -23988,7 +23985,7 @@
         <v>9</v>
       </c>
       <c r="O418" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P418">
         <v>181</v>
@@ -24044,7 +24041,7 @@
         <v>9</v>
       </c>
       <c r="O419" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P419">
         <v>181</v>
@@ -24100,7 +24097,7 @@
         <v>10</v>
       </c>
       <c r="O420" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P420">
         <v>361</v>
@@ -24156,7 +24153,7 @@
         <v>10</v>
       </c>
       <c r="O421" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P421">
         <v>361</v>
@@ -24212,7 +24209,7 @@
         <v>10</v>
       </c>
       <c r="O422" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P422">
         <v>361</v>
@@ -24268,7 +24265,7 @@
         <v>10</v>
       </c>
       <c r="O423" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P423">
         <v>361</v>
@@ -24324,7 +24321,7 @@
         <v>10</v>
       </c>
       <c r="O424" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P424">
         <v>361</v>
@@ -24380,7 +24377,7 @@
         <v>10</v>
       </c>
       <c r="O425" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P425">
         <v>361</v>
@@ -24436,7 +24433,7 @@
         <v>10</v>
       </c>
       <c r="O426" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P426">
         <v>361</v>
@@ -24492,7 +24489,7 @@
         <v>10</v>
       </c>
       <c r="O427" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P427">
         <v>361</v>
@@ -24548,7 +24545,7 @@
         <v>10</v>
       </c>
       <c r="O428" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P428">
         <v>361</v>
@@ -24604,7 +24601,7 @@
         <v>10</v>
       </c>
       <c r="O429" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P429">
         <v>361</v>
@@ -24660,7 +24657,7 @@
         <v>10</v>
       </c>
       <c r="O430" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P430">
         <v>361</v>
@@ -24716,7 +24713,7 @@
         <v>10</v>
       </c>
       <c r="O431" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P431">
         <v>361</v>
@@ -24772,7 +24769,7 @@
         <v>10</v>
       </c>
       <c r="O432" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P432">
         <v>361</v>
@@ -24828,7 +24825,7 @@
         <v>10</v>
       </c>
       <c r="O433" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P433">
         <v>361</v>
@@ -24884,7 +24881,7 @@
         <v>10</v>
       </c>
       <c r="O434" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P434">
         <v>361</v>
@@ -24940,7 +24937,7 @@
         <v>10</v>
       </c>
       <c r="O435" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P435">
         <v>361</v>
@@ -24996,7 +24993,7 @@
         <v>10</v>
       </c>
       <c r="O436" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P436">
         <v>361</v>
@@ -25052,7 +25049,7 @@
         <v>10</v>
       </c>
       <c r="O437" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P437">
         <v>361</v>
@@ -25108,7 +25105,7 @@
         <v>10</v>
       </c>
       <c r="O438" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P438">
         <v>361</v>
@@ -25164,7 +25161,7 @@
         <v>10</v>
       </c>
       <c r="O439" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P439">
         <v>361</v>
@@ -25220,7 +25217,7 @@
         <v>10</v>
       </c>
       <c r="O440" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P440">
         <v>361</v>
@@ -25276,7 +25273,7 @@
         <v>10</v>
       </c>
       <c r="O441" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P441">
         <v>361</v>
@@ -25332,7 +25329,7 @@
         <v>10</v>
       </c>
       <c r="O442" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P442">
         <v>361</v>
@@ -25388,7 +25385,7 @@
         <v>10</v>
       </c>
       <c r="O443" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P443">
         <v>361</v>
@@ -25444,7 +25441,7 @@
         <v>10</v>
       </c>
       <c r="O444" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P444">
         <v>361</v>
@@ -25500,7 +25497,7 @@
         <v>10</v>
       </c>
       <c r="O445" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P445">
         <v>361</v>
@@ -25556,7 +25553,7 @@
         <v>10</v>
       </c>
       <c r="O446" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P446">
         <v>361</v>
@@ -25612,7 +25609,7 @@
         <v>10</v>
       </c>
       <c r="O447" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P447">
         <v>361</v>
@@ -25668,7 +25665,7 @@
         <v>10</v>
       </c>
       <c r="O448" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P448">
         <v>361</v>
@@ -25724,7 +25721,7 @@
         <v>10</v>
       </c>
       <c r="O449" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P449">
         <v>361</v>
@@ -25780,7 +25777,7 @@
         <v>10</v>
       </c>
       <c r="O450" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P450">
         <v>361</v>
@@ -25836,7 +25833,7 @@
         <v>10</v>
       </c>
       <c r="O451" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P451">
         <v>361</v>
@@ -25892,7 +25889,7 @@
         <v>10</v>
       </c>
       <c r="O452" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P452">
         <v>361</v>
@@ -25948,7 +25945,7 @@
         <v>10</v>
       </c>
       <c r="O453" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P453">
         <v>361</v>
@@ -26004,7 +26001,7 @@
         <v>10</v>
       </c>
       <c r="O454" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P454">
         <v>361</v>
@@ -26060,7 +26057,7 @@
         <v>10</v>
       </c>
       <c r="O455" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P455">
         <v>361</v>
@@ -26116,7 +26113,7 @@
         <v>10</v>
       </c>
       <c r="O456" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P456">
         <v>361</v>
@@ -26172,7 +26169,7 @@
         <v>10</v>
       </c>
       <c r="O457" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P457">
         <v>361</v>
@@ -26228,7 +26225,7 @@
         <v>10</v>
       </c>
       <c r="O458" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P458">
         <v>361</v>
@@ -26284,7 +26281,7 @@
         <v>10</v>
       </c>
       <c r="O459" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P459">
         <v>361</v>
@@ -26340,7 +26337,7 @@
         <v>10</v>
       </c>
       <c r="O460" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P460">
         <v>361</v>
@@ -26396,7 +26393,7 @@
         <v>10</v>
       </c>
       <c r="O461" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P461">
         <v>361</v>
@@ -26452,7 +26449,7 @@
         <v>11</v>
       </c>
       <c r="O462" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P462">
         <v>720</v>
@@ -26508,7 +26505,7 @@
         <v>11</v>
       </c>
       <c r="O463" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P463">
         <v>720</v>
@@ -26564,7 +26561,7 @@
         <v>11</v>
       </c>
       <c r="O464" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P464">
         <v>720</v>
@@ -26620,7 +26617,7 @@
         <v>11</v>
       </c>
       <c r="O465" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P465">
         <v>720</v>
@@ -26676,7 +26673,7 @@
         <v>11</v>
       </c>
       <c r="O466" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P466">
         <v>720</v>
@@ -26732,7 +26729,7 @@
         <v>11</v>
       </c>
       <c r="O467" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P467">
         <v>720</v>
@@ -26788,7 +26785,7 @@
         <v>11</v>
       </c>
       <c r="O468" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P468">
         <v>720</v>
@@ -26844,7 +26841,7 @@
         <v>11</v>
       </c>
       <c r="O469" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P469">
         <v>720</v>
@@ -26900,7 +26897,7 @@
         <v>11</v>
       </c>
       <c r="O470" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P470">
         <v>720</v>
@@ -26956,7 +26953,7 @@
         <v>11</v>
       </c>
       <c r="O471" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P471">
         <v>720</v>
@@ -27012,7 +27009,7 @@
         <v>11</v>
       </c>
       <c r="O472" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P472">
         <v>720</v>
@@ -27068,7 +27065,7 @@
         <v>11</v>
       </c>
       <c r="O473" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P473">
         <v>720</v>
@@ -27124,7 +27121,7 @@
         <v>11</v>
       </c>
       <c r="O474" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P474">
         <v>720</v>
@@ -27180,7 +27177,7 @@
         <v>11</v>
       </c>
       <c r="O475" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P475">
         <v>720</v>
@@ -27236,7 +27233,7 @@
         <v>11</v>
       </c>
       <c r="O476" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P476">
         <v>720</v>
@@ -27292,7 +27289,7 @@
         <v>11</v>
       </c>
       <c r="O477" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P477">
         <v>720</v>
@@ -27348,7 +27345,7 @@
         <v>11</v>
       </c>
       <c r="O478" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P478">
         <v>720</v>
@@ -27404,7 +27401,7 @@
         <v>11</v>
       </c>
       <c r="O479" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P479">
         <v>720</v>
@@ -27460,7 +27457,7 @@
         <v>11</v>
       </c>
       <c r="O480" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P480">
         <v>720</v>
@@ -27516,7 +27513,7 @@
         <v>11</v>
       </c>
       <c r="O481" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P481">
         <v>720</v>
@@ -27572,7 +27569,7 @@
         <v>11</v>
       </c>
       <c r="O482" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P482">
         <v>720</v>
@@ -27628,7 +27625,7 @@
         <v>11</v>
       </c>
       <c r="O483" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P483">
         <v>720</v>
@@ -27684,7 +27681,7 @@
         <v>11</v>
       </c>
       <c r="O484" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P484">
         <v>720</v>
@@ -27740,7 +27737,7 @@
         <v>11</v>
       </c>
       <c r="O485" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P485">
         <v>720</v>
@@ -27796,7 +27793,7 @@
         <v>11</v>
       </c>
       <c r="O486" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P486">
         <v>720</v>
@@ -27852,7 +27849,7 @@
         <v>11</v>
       </c>
       <c r="O487" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P487">
         <v>720</v>
@@ -27908,7 +27905,7 @@
         <v>11</v>
       </c>
       <c r="O488" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P488">
         <v>720</v>
@@ -27964,7 +27961,7 @@
         <v>11</v>
       </c>
       <c r="O489" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P489">
         <v>720</v>
@@ -28020,7 +28017,7 @@
         <v>11</v>
       </c>
       <c r="O490" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P490">
         <v>720</v>
@@ -28076,7 +28073,7 @@
         <v>11</v>
       </c>
       <c r="O491" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P491">
         <v>720</v>
@@ -28132,7 +28129,7 @@
         <v>11</v>
       </c>
       <c r="O492" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P492">
         <v>720</v>
@@ -28188,7 +28185,7 @@
         <v>11</v>
       </c>
       <c r="O493" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P493">
         <v>720</v>
@@ -28244,7 +28241,7 @@
         <v>11</v>
       </c>
       <c r="O494" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P494">
         <v>720</v>
@@ -28300,7 +28297,7 @@
         <v>11</v>
       </c>
       <c r="O495" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P495">
         <v>720</v>
@@ -28356,7 +28353,7 @@
         <v>11</v>
       </c>
       <c r="O496" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P496">
         <v>720</v>
@@ -28412,7 +28409,7 @@
         <v>11</v>
       </c>
       <c r="O497" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P497">
         <v>720</v>
@@ -28468,7 +28465,7 @@
         <v>11</v>
       </c>
       <c r="O498" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P498">
         <v>720</v>
@@ -28524,7 +28521,7 @@
         <v>11</v>
       </c>
       <c r="O499" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P499">
         <v>720</v>
@@ -28580,7 +28577,7 @@
         <v>11</v>
       </c>
       <c r="O500" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P500">
         <v>720</v>
@@ -28636,7 +28633,7 @@
         <v>11</v>
       </c>
       <c r="O501" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P501">
         <v>720</v>
@@ -28692,7 +28689,7 @@
         <v>11</v>
       </c>
       <c r="O502" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P502">
         <v>720</v>
@@ -28748,7 +28745,7 @@
         <v>11</v>
       </c>
       <c r="O503" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P503">
         <v>720</v>
@@ -28804,7 +28801,7 @@
         <v>19</v>
       </c>
       <c r="O504" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P504">
         <v>-999999</v>
@@ -28860,7 +28857,7 @@
         <v>19</v>
       </c>
       <c r="O505" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P505">
         <v>-999999</v>
@@ -28916,7 +28913,7 @@
         <v>19</v>
       </c>
       <c r="O506" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P506">
         <v>-999999</v>
@@ -28972,7 +28969,7 @@
         <v>19</v>
       </c>
       <c r="O507" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P507">
         <v>-999999</v>
@@ -29028,7 +29025,7 @@
         <v>19</v>
       </c>
       <c r="O508" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P508">
         <v>-999999</v>
@@ -29084,7 +29081,7 @@
         <v>19</v>
       </c>
       <c r="O509" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P509">
         <v>-999999</v>
@@ -29140,7 +29137,7 @@
         <v>19</v>
       </c>
       <c r="O510" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P510">
         <v>-999999</v>
@@ -29196,7 +29193,7 @@
         <v>19</v>
       </c>
       <c r="O511" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P511">
         <v>-999999</v>
@@ -29252,7 +29249,7 @@
         <v>19</v>
       </c>
       <c r="O512" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P512">
         <v>-999999</v>
@@ -29308,7 +29305,7 @@
         <v>19</v>
       </c>
       <c r="O513" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P513">
         <v>-999999</v>
@@ -29364,7 +29361,7 @@
         <v>19</v>
       </c>
       <c r="O514" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P514">
         <v>-999999</v>
@@ -29420,7 +29417,7 @@
         <v>19</v>
       </c>
       <c r="O515" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P515">
         <v>-999999</v>
@@ -29476,7 +29473,7 @@
         <v>19</v>
       </c>
       <c r="O516" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P516">
         <v>-999999</v>
@@ -29532,7 +29529,7 @@
         <v>19</v>
       </c>
       <c r="O517" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P517">
         <v>-999999</v>
@@ -29588,7 +29585,7 @@
         <v>19</v>
       </c>
       <c r="O518" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P518">
         <v>-999999</v>
@@ -29644,7 +29641,7 @@
         <v>19</v>
       </c>
       <c r="O519" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P519">
         <v>-999999</v>
@@ -29700,7 +29697,7 @@
         <v>19</v>
       </c>
       <c r="O520" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P520">
         <v>-999999</v>
@@ -29756,7 +29753,7 @@
         <v>19</v>
       </c>
       <c r="O521" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P521">
         <v>-999999</v>
@@ -29812,7 +29809,7 @@
         <v>19</v>
       </c>
       <c r="O522" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P522">
         <v>-999999</v>
@@ -29868,7 +29865,7 @@
         <v>19</v>
       </c>
       <c r="O523" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P523">
         <v>-999999</v>
@@ -29924,7 +29921,7 @@
         <v>19</v>
       </c>
       <c r="O524" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P524">
         <v>-999999</v>
@@ -29977,7 +29974,7 @@
         <v>96</v>
       </c>
       <c r="N525">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O525" t="s">
         <v>100</v>
@@ -30033,7 +30030,7 @@
         <v>96</v>
       </c>
       <c r="N526">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O526" t="s">
         <v>100</v>
@@ -30089,7 +30086,7 @@
         <v>96</v>
       </c>
       <c r="N527">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O527" t="s">
         <v>100</v>
@@ -30145,7 +30142,7 @@
         <v>96</v>
       </c>
       <c r="N528">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O528" t="s">
         <v>100</v>
@@ -30201,7 +30198,7 @@
         <v>96</v>
       </c>
       <c r="N529">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O529" t="s">
         <v>100</v>
@@ -30257,7 +30254,7 @@
         <v>96</v>
       </c>
       <c r="N530">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O530" t="s">
         <v>100</v>
@@ -30313,7 +30310,7 @@
         <v>96</v>
       </c>
       <c r="N531">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O531" t="s">
         <v>100</v>
@@ -30369,7 +30366,7 @@
         <v>96</v>
       </c>
       <c r="N532">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O532" t="s">
         <v>100</v>
@@ -30425,7 +30422,7 @@
         <v>96</v>
       </c>
       <c r="N533">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O533" t="s">
         <v>100</v>
@@ -30481,7 +30478,7 @@
         <v>96</v>
       </c>
       <c r="N534">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O534" t="s">
         <v>100</v>
@@ -30537,7 +30534,7 @@
         <v>96</v>
       </c>
       <c r="N535">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O535" t="s">
         <v>100</v>
@@ -30593,7 +30590,7 @@
         <v>96</v>
       </c>
       <c r="N536">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O536" t="s">
         <v>100</v>
@@ -30649,7 +30646,7 @@
         <v>96</v>
       </c>
       <c r="N537">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O537" t="s">
         <v>100</v>
@@ -30705,7 +30702,7 @@
         <v>96</v>
       </c>
       <c r="N538">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O538" t="s">
         <v>100</v>
@@ -30761,7 +30758,7 @@
         <v>96</v>
       </c>
       <c r="N539">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O539" t="s">
         <v>100</v>
@@ -30817,7 +30814,7 @@
         <v>96</v>
       </c>
       <c r="N540">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O540" t="s">
         <v>100</v>
@@ -30873,7 +30870,7 @@
         <v>96</v>
       </c>
       <c r="N541">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O541" t="s">
         <v>100</v>
@@ -30929,7 +30926,7 @@
         <v>96</v>
       </c>
       <c r="N542">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O542" t="s">
         <v>100</v>
@@ -30985,7 +30982,7 @@
         <v>96</v>
       </c>
       <c r="N543">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O543" t="s">
         <v>100</v>
@@ -31041,7 +31038,7 @@
         <v>96</v>
       </c>
       <c r="N544">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O544" t="s">
         <v>100</v>
@@ -31097,7 +31094,7 @@
         <v>96</v>
       </c>
       <c r="N545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O545" t="s">
         <v>100</v>
@@ -31150,7 +31147,7 @@
         <v>96</v>
       </c>
       <c r="N546">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O546" t="s">
         <v>100</v>
@@ -31232,7 +31229,7 @@
         <v>78</v>
       </c>
       <c r="N548">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O548" t="s">
         <v>100</v>
@@ -31291,7 +31288,7 @@
         <v>4</v>
       </c>
       <c r="O549" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P549">
         <v>-999999</v>
@@ -31347,7 +31344,7 @@
         <v>4</v>
       </c>
       <c r="O550" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P550">
         <v>-999999</v>
@@ -31403,7 +31400,7 @@
         <v>19</v>
       </c>
       <c r="O551" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P551">
         <v>-999999</v>
@@ -31672,20 +31669,20 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8D3E11-1544-44EC-A09B-4AA4AF3B42F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B8E7CD4-344F-4AFD-9ADF-FB918EA27068}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4DF6B94-2407-4B1A-9DB9-1D1E1BBFA75F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{608241DE-2B30-4457-969C-5F2DC5D392D7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD099379-5008-4DA9-BA08-BC410AF1EE9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C5AF100-E77D-4093-B3A3-F7D18DF081D2}"/>
 </file>